--- a/biology/Zoologie/Conure_à_pinceaux_d'or/Conure_à_pinceaux_d'or.xlsx
+++ b/biology/Zoologie/Conure_à_pinceaux_d'or/Conure_à_pinceaux_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_pinceaux_d%27or</t>
+          <t>Conure_à_pinceaux_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptosittaca branickii
 La Conure à pinceaux d'or  (Leptosittaca branickii) est une espèce d'oiseaux de la famille des Psittacidae, l'unique représentante du genre Leptosittaca.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_pinceaux_d%27or</t>
+          <t>Conure_à_pinceaux_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 35 cm. Il présente un plumage vert, plus clair au niveau du dessous du corps. La nuque arbore une marque jaune doré qui s'étend jusqu'en arrière des yeux. Le bas de la poitrine est zébré de rouge, coloration retrouvée au niveau du dessous des ailes et de la queue. Les cercles orbitaux sont blancs et les iris orange. Le bec et les pattes sont grisâtres.
 Cette espèce ne présente pas de dimorphisme sexuel.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_pinceaux_d%27or</t>
+          <t>Conure_à_pinceaux_d'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La conure à pinceaux d'or peuple les forêts tempérées entre 1 400 et 3 400 m.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_pinceaux_d%27or</t>
+          <t>Conure_à_pinceaux_d'or</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les Andes, de la Colombie au Pérou.
 </t>
